--- a/artfynd/A 32653-2023.xlsx
+++ b/artfynd/A 32653-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111676783</v>
+        <v>111676874</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580097.5158388983</v>
+        <v>580087.5393834712</v>
       </c>
       <c r="R2" t="n">
-        <v>6414648.418329277</v>
+        <v>6414640.769895267</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>3 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -814,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111676874</v>
+        <v>111676783</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580087.5393834712</v>
+        <v>580097.5158388983</v>
       </c>
       <c r="R3" t="n">
-        <v>6414640.769895267</v>
+        <v>6414648.418329277</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>3 blommor</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 32653-2023.xlsx
+++ b/artfynd/A 32653-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111676874</v>
+        <v>111676783</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580087.5393834712</v>
+        <v>580097.5158388983</v>
       </c>
       <c r="R2" t="n">
-        <v>6414640.769895267</v>
+        <v>6414648.418329277</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>3 blommor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -814,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111676783</v>
+        <v>111676874</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580097.5158388983</v>
+        <v>580087.5393834712</v>
       </c>
       <c r="R3" t="n">
-        <v>6414648.418329277</v>
+        <v>6414640.769895267</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 32653-2023.xlsx
+++ b/artfynd/A 32653-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111676874</v>
+        <v>111676783</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>580087.5393834712</v>
+        <v>580098</v>
       </c>
       <c r="R2" t="n">
-        <v>6414640.769895267</v>
+        <v>6414648</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,24 +769,14 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>3 blommor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -814,7 +804,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111676783</v>
+        <v>111676874</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +839,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -870,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580097.5158388983</v>
+        <v>580088</v>
       </c>
       <c r="R3" t="n">
-        <v>6414648.418329277</v>
+        <v>6414641</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,24 +893,14 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD3" t="b">
